--- a/data_raw/CME_BRR_latest.xlsx
+++ b/data_raw/CME_BRR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7223,6 +7223,134 @@
         <v>114921.33</v>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>114452.23</v>
+      </c>
+      <c r="C425" t="n">
+        <v>113606.95</v>
+      </c>
+      <c r="D425" t="n">
+        <v>114921.33</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>111999.56</v>
+      </c>
+      <c r="C426" t="n">
+        <v>111649.08</v>
+      </c>
+      <c r="D426" t="n">
+        <v>111774.44</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>110246.56</v>
+      </c>
+      <c r="C427" t="n">
+        <v>110927.62</v>
+      </c>
+      <c r="D427" t="n">
+        <v>110107.42</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>111966.51</v>
+      </c>
+      <c r="C428" t="n">
+        <v>112005.74</v>
+      </c>
+      <c r="D428" t="n">
+        <v>110861.67</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>112973.48</v>
+      </c>
+      <c r="C429" t="n">
+        <v>112243.83</v>
+      </c>
+      <c r="D429" t="n">
+        <v>113199.04</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>108653.78</v>
+      </c>
+      <c r="C430" t="n">
+        <v>108451.25</v>
+      </c>
+      <c r="D430" t="n">
+        <v>110376.92</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>108562.91</v>
+      </c>
+      <c r="C431" t="n">
+        <v>108791.93</v>
+      </c>
+      <c r="D431" t="n">
+        <v>108340.17</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>108398.58</v>
+      </c>
+      <c r="C432" t="n">
+        <v>109030.07</v>
+      </c>
+      <c r="D432" t="n">
+        <v>108744.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/CME_BRR_latest.xlsx
+++ b/data_raw/CME_BRR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D437"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7431,6 +7431,118 @@
         <v>112643.89</v>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>110904.6</v>
+      </c>
+      <c r="C438" t="n">
+        <v>110161.25</v>
+      </c>
+      <c r="D438" t="n">
+        <v>110818.17</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>111187.39</v>
+      </c>
+      <c r="C439" t="n">
+        <v>111176.54</v>
+      </c>
+      <c r="D439" t="n">
+        <v>110663.53</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>112358.95</v>
+      </c>
+      <c r="C440" t="n">
+        <v>112204.42</v>
+      </c>
+      <c r="D440" t="n">
+        <v>111332.32</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>112026.12</v>
+      </c>
+      <c r="C441" t="n">
+        <v>111292.34</v>
+      </c>
+      <c r="D441" t="n">
+        <v>113093.82</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>114101.92</v>
+      </c>
+      <c r="C442" t="n">
+        <v>113415.66</v>
+      </c>
+      <c r="D442" t="n">
+        <v>112113.55</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>114356.29</v>
+      </c>
+      <c r="C443" t="n">
+        <v>114386.02</v>
+      </c>
+      <c r="D443" t="n">
+        <v>114124.21</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>115229.77</v>
+      </c>
+      <c r="C444" t="n">
+        <v>116586.5</v>
+      </c>
+      <c r="D444" t="n">
+        <v>115275.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/CME_BRR_latest.xlsx
+++ b/data_raw/CME_BRR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7543,6 +7543,102 @@
         <v>115275.13</v>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>115883.05</v>
+      </c>
+      <c r="C445" t="n">
+        <v>115733.16</v>
+      </c>
+      <c r="D445" t="n">
+        <v>115873.72</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>115462.4</v>
+      </c>
+      <c r="C446" t="n">
+        <v>115570.57</v>
+      </c>
+      <c r="D446" t="n">
+        <v>115831.13</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>114805.96</v>
+      </c>
+      <c r="C447" t="n">
+        <v>115317.77</v>
+      </c>
+      <c r="D447" t="n">
+        <v>116060.62</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>115115.88</v>
+      </c>
+      <c r="C448" t="n">
+        <v>116622.71</v>
+      </c>
+      <c r="D448" t="n">
+        <v>115843.37</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>115839.3</v>
+      </c>
+      <c r="C449" t="n">
+        <v>115694.1</v>
+      </c>
+      <c r="D449" t="n">
+        <v>117254.54</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>117738.1</v>
+      </c>
+      <c r="C450" t="n">
+        <v>117558.86</v>
+      </c>
+      <c r="D450" t="n">
+        <v>117174.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
